--- a/Trademart/ExcelSheets/TestData.xlsx
+++ b/Trademart/ExcelSheets/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16290" windowHeight="6615"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16260" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>EmailAddress</t>
   </si>
@@ -35,12 +35,19 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,12 +72,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,13 +113,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,17 +433,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
@@ -424,6 +454,9 @@
       <c r="B2" s="2">
         <v>123465</v>
       </c>
+      <c r="C2" t="s" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -432,6 +465,9 @@
       <c r="B3" s="2">
         <v>654321</v>
       </c>
+      <c r="C3" t="s" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -439,6 +475,9 @@
       </c>
       <c r="B4" s="2">
         <v>123456</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
